--- a/chapter4/ch4_tables.xlsx
+++ b/chapter4/ch4_tables.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songshgeo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songshgeo/Documents/VSCode/PhD_Thesis/chapter4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD7E68C-EBA8-2042-AC84-7F046236C174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC155ACA-6AD9-8E40-B2C8-328B3A72CD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{785DB089-CFB9-9246-B587-BAA285C649B0}"/>
+    <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{785DB089-CFB9-9246-B587-BAA285C649B0}"/>
   </bookViews>
   <sheets>
     <sheet name="黄河流域法律政策" sheetId="1" r:id="rId1"/>
     <sheet name="数据集" sheetId="2" r:id="rId2"/>
+    <sheet name="相关性情况" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>法律或政策名称</t>
   </si>
@@ -253,6 +254,57 @@
   <si>
     <t>黄河水利委员会档案馆</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>S vs P</t>
+  </si>
+  <si>
+    <t>S vs A</t>
+  </si>
+  <si>
+    <t>S vs IWGI</t>
+  </si>
+  <si>
+    <t>P vs A</t>
+  </si>
+  <si>
+    <t>P vs IWGI</t>
+  </si>
+  <si>
+    <t>A vs IWGI</t>
+  </si>
+  <si>
+    <t>P1~P3</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>-0.75 *</t>
+  </si>
+  <si>
+    <t>0.75 *</t>
+  </si>
+  <si>
+    <t>-0.90 *</t>
+  </si>
+  <si>
+    <t>-0.87 *</t>
+  </si>
+  <si>
+    <t>0.77 *</t>
+  </si>
+  <si>
+    <t>-0.86 *</t>
   </si>
 </sst>
 </file>
@@ -318,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,6 +385,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B998BEAE-DE83-1442-9F99-21B5D7CB9FD7}">
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -1102,4 +1157,135 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31E1723-BF9D-7241-9013-7C644A80C97F}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-0.31</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-0.18</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-0.13</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-0.38</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-0.33</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/chapter4/ch4_tables.xlsx
+++ b/chapter4/ch4_tables.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songshgeo/Documents/VSCode/PhD_Thesis/chapter4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC155ACA-6AD9-8E40-B2C8-328B3A72CD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEEC550-E3DE-3549-8E3E-FE238F30E7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{785DB089-CFB9-9246-B587-BAA285C649B0}"/>
+    <workbookView xWindow="2000" yWindow="1800" windowWidth="28240" windowHeight="17440" activeTab="3" xr2:uid="{785DB089-CFB9-9246-B587-BAA285C649B0}"/>
   </bookViews>
   <sheets>
     <sheet name="黄河流域法律政策" sheetId="1" r:id="rId1"/>
     <sheet name="数据集" sheetId="2" r:id="rId2"/>
     <sheet name="相关性情况" sheetId="3" r:id="rId3"/>
+    <sheet name="sfv各区域贡献" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>法律或政策名称</t>
   </si>
@@ -305,13 +305,34 @@
   </si>
   <si>
     <t>-0.86 *</t>
+  </si>
+  <si>
+    <t>1966-1978</t>
+  </si>
+  <si>
+    <t>1978-2001</t>
+  </si>
+  <si>
+    <t>2001-2013</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +347,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -370,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +422,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1163,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31E1723-BF9D-7241-9013-7C644A80C97F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1288,4 +1337,88 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B283AE5-F80A-C94F-BCB5-54940A1A9D5F}">
+  <dimension ref="A2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="D4" s="7">
+        <v>-5.28E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="7">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.36420000000000002</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.2385999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-0.2636</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-0.18579999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/chapter4/ch4_tables.xlsx
+++ b/chapter4/ch4_tables.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songshgeo/Documents/VSCode/PhD_Thesis/chapter4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEEC550-E3DE-3549-8E3E-FE238F30E7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4009CBD8-8045-E243-A92A-EA6A7357A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1800" windowWidth="28240" windowHeight="17440" activeTab="3" xr2:uid="{785DB089-CFB9-9246-B587-BAA285C649B0}"/>
+    <workbookView xWindow="10160" yWindow="3140" windowWidth="28240" windowHeight="17440" activeTab="4" xr2:uid="{785DB089-CFB9-9246-B587-BAA285C649B0}"/>
   </bookViews>
   <sheets>
     <sheet name="黄河流域法律政策" sheetId="1" r:id="rId1"/>
     <sheet name="数据集" sheetId="2" r:id="rId2"/>
     <sheet name="相关性情况" sheetId="3" r:id="rId3"/>
     <sheet name="sfv各区域贡献" sheetId="4" r:id="rId4"/>
+    <sheet name="purpose各区域贡献" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>法律或政策名称</t>
   </si>
@@ -326,6 +327,36 @@
   </si>
   <si>
     <t>DR</t>
+  </si>
+  <si>
+    <t>P1: 1965-1977</t>
+  </si>
+  <si>
+    <t>P2: 1978-2000</t>
+  </si>
+  <si>
+    <t>P3: 2001-2013</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Numerator</t>
+  </si>
+  <si>
+    <t>Denominator</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>Urban domestic WU</t>
+  </si>
+  <si>
+    <t>Rural domestic WU</t>
+  </si>
+  <si>
+    <t>Rural livestock WU</t>
   </si>
 </sst>
 </file>
@@ -404,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,6 +467,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1343,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B283AE5-F80A-C94F-BCB5-54940A1A9D5F}">
   <dimension ref="A2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1421,4 +1461,130 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD490DAB-6898-2547-BC9C-6089D58D6224}">
+  <dimension ref="A2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>-3.6799999999999999E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.4839</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.1492</v>
+      </c>
+      <c r="D4" s="7">
+        <v>-7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="7">
+        <v>-0.47949999999999998</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-0.186</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="D6" s="7">
+        <v>-6.1100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1.03E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5.3E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="9">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="D9" s="9">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>